--- a/ch4-spreadsheets/res/formulas_finished.xlsx
+++ b/ch4-spreadsheets/res/formulas_finished.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Your Company Name</t>
   </si>
   <si>
-    <t>Summer Barbecue</t>
-  </si>
-  <si>
-    <t>Meat Purchase Requisition</t>
-  </si>
-  <si>
     <t>Pork Shoulder Roast (5lb)</t>
   </si>
   <si>
@@ -66,6 +60,18 @@
   </si>
   <si>
     <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Requisition Purpose</t>
+  </si>
+  <si>
+    <t>Summer Barbecue: Meat Purchase</t>
+  </si>
+  <si>
+    <t>Requester Name</t>
+  </si>
+  <si>
+    <t>Eric Kuha</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -177,16 +183,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -194,6 +200,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -514,12 +526,13 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -532,9 +545,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
@@ -542,14 +557,25 @@
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14">
+        <f ca="1">TODAY()</f>
+        <v>42827</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -578,7 +604,10 @@
       <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="11">
+        <f>B7*C7</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -590,7 +619,10 @@
       <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="11">
+        <f>B8*C8</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -602,11 +634,14 @@
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="11">
+        <f t="shared" ref="D9:D11" si="0">B9*C9</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>10</v>
@@ -614,11 +649,14 @@
       <c r="C10" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>20</v>
@@ -626,20 +664,26 @@
       <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="13">
+        <f>D7+D8+D9+D10+D11</f>
+        <v>355</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:D5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
